--- a/Sujeto_6/Carbohidrates.xlsx
+++ b/Sujeto_6/Carbohidrates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Documents/Estudios/Magíster/Tesis/Páncreas_artificial/BaseDatos/GitHub/Sujeto_6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE59974-D0A3-364F-B65E-EEAA22FC001B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0BE75E-41E1-B144-B4B7-CE20EECA94F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Value</t>
+    <t>Value (g)</t>
+  </si>
+  <si>
+    <t>77.3</t>
+  </si>
+  <si>
+    <t>77.4</t>
+  </si>
+  <si>
+    <t>48.4</t>
+  </si>
+  <si>
+    <t>78.2</t>
+  </si>
+  <si>
+    <t>30.5</t>
+  </si>
+  <si>
+    <t>44.5</t>
+  </si>
+  <si>
+    <t>41.4</t>
+  </si>
+  <si>
+    <t>38.5</t>
+  </si>
+  <si>
+    <t>32.6</t>
+  </si>
+  <si>
+    <t>38.7</t>
+  </si>
+  <si>
+    <t>22.6</t>
+  </si>
+  <si>
+    <t>29.1</t>
+  </si>
+  <si>
+    <t>9.8</t>
+  </si>
+  <si>
+    <t>53.2</t>
+  </si>
+  <si>
+    <t>16.4</t>
+  </si>
+  <si>
+    <t>16.1</t>
+  </si>
+  <si>
+    <t>68.3</t>
+  </si>
+  <si>
+    <t>56.1</t>
+  </si>
+  <si>
+    <t>14.3</t>
+  </si>
+  <si>
+    <t>13.1</t>
+  </si>
+  <si>
+    <t>9.4</t>
   </si>
 </sst>
 </file>
@@ -434,10 +497,13 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -451,48 +517,48 @@
       <c r="A2" s="2">
         <v>44351.333333333343</v>
       </c>
-      <c r="B2">
-        <v>77.3</v>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44351.541666666657</v>
       </c>
-      <c r="B3">
-        <v>77.400000000000006</v>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44351.666666666657</v>
       </c>
-      <c r="B4">
-        <v>48.4</v>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44351.833333333343</v>
       </c>
-      <c r="B5">
-        <v>78.2</v>
+      <c r="B5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44352.458333333343</v>
       </c>
-      <c r="B6">
-        <v>30.5</v>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44352.541666666657</v>
       </c>
-      <c r="B7">
-        <v>44.5</v>
+      <c r="B7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -507,8 +573,8 @@
       <c r="A9" s="2">
         <v>44352.791666666657</v>
       </c>
-      <c r="B9">
-        <v>41.4</v>
+      <c r="B9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -523,48 +589,48 @@
       <c r="A11" s="2">
         <v>44353.4375</v>
       </c>
-      <c r="B11">
-        <v>38.5</v>
+      <c r="B11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44353.541666666657</v>
       </c>
-      <c r="B12">
-        <v>32.6</v>
+      <c r="B12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44353.75</v>
       </c>
-      <c r="B13">
-        <v>38.700000000000003</v>
+      <c r="B13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44354.354166666657</v>
       </c>
-      <c r="B14">
-        <v>22.6</v>
+      <c r="B14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44354.541666666657</v>
       </c>
-      <c r="B15">
-        <v>44.5</v>
+      <c r="B15" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44354.708333333343</v>
       </c>
-      <c r="B16">
-        <v>29.1</v>
+      <c r="B16" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -579,64 +645,64 @@
       <c r="A18" s="2">
         <v>44355.5</v>
       </c>
-      <c r="B18">
-        <v>9.8000000000000007</v>
+      <c r="B18" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44355.583333333343</v>
       </c>
-      <c r="B19">
-        <v>53.2</v>
+      <c r="B19" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44355.75</v>
       </c>
-      <c r="B20">
-        <v>16.399999999999999</v>
+      <c r="B20" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44355.833333333343</v>
       </c>
-      <c r="B21">
-        <v>38.5</v>
+      <c r="B21" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>44356.416666666657</v>
       </c>
-      <c r="B22">
-        <v>16.100000000000001</v>
+      <c r="B22" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>44356.583333333343</v>
       </c>
-      <c r="B23">
-        <v>68.3</v>
+      <c r="B23" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>44356.791666666657</v>
       </c>
-      <c r="B24">
-        <v>56.1</v>
+      <c r="B24" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>44356.875</v>
       </c>
-      <c r="B25">
-        <v>14.3</v>
+      <c r="B25" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -651,16 +717,16 @@
       <c r="A27" s="2">
         <v>44357.583333333343</v>
       </c>
-      <c r="B27">
-        <v>13.1</v>
+      <c r="B27" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>44357.75</v>
       </c>
-      <c r="B28">
-        <v>9.4</v>
+      <c r="B28" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Sujeto_6/Carbohidrates.xlsx
+++ b/Sujeto_6/Carbohidrates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Documents/Estudios/Magíster/Tesis/Páncreas_artificial/BaseDatos/GitHub/Sujeto_6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0BE75E-41E1-B144-B4B7-CE20EECA94F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C43F3D4-158B-EF46-A7CE-70B96118FC6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -46,9 +46,15 @@
     <t>44.5</t>
   </si>
   <si>
+    <t>31.0</t>
+  </si>
+  <si>
     <t>41.4</t>
   </si>
   <si>
+    <t>13.0</t>
+  </si>
+  <si>
     <t>38.5</t>
   </si>
   <si>
@@ -64,6 +70,9 @@
     <t>29.1</t>
   </si>
   <si>
+    <t>24.0</t>
+  </si>
+  <si>
     <t>9.8</t>
   </si>
   <si>
@@ -83,6 +92,9 @@
   </si>
   <si>
     <t>14.3</t>
+  </si>
+  <si>
+    <t>20.0</t>
   </si>
   <si>
     <t>13.1</t>
@@ -496,9 +508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -565,8 +575,8 @@
       <c r="A8" s="2">
         <v>44352.666666666657</v>
       </c>
-      <c r="B8">
-        <v>31</v>
+      <c r="B8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -574,15 +584,15 @@
         <v>44352.791666666657</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44352.875</v>
       </c>
-      <c r="B10">
-        <v>13</v>
+      <c r="B10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -590,7 +600,7 @@
         <v>44353.4375</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -598,7 +608,7 @@
         <v>44353.541666666657</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -606,7 +616,7 @@
         <v>44353.75</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -614,7 +624,7 @@
         <v>44354.354166666657</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -630,15 +640,15 @@
         <v>44354.708333333343</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44354.791666666657</v>
       </c>
-      <c r="B17">
-        <v>24</v>
+      <c r="B17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -646,7 +656,7 @@
         <v>44355.5</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -654,7 +664,7 @@
         <v>44355.583333333343</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -662,7 +672,7 @@
         <v>44355.75</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -670,7 +680,7 @@
         <v>44355.833333333343</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -678,7 +688,7 @@
         <v>44356.416666666657</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -686,7 +696,7 @@
         <v>44356.583333333343</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -694,7 +704,7 @@
         <v>44356.791666666657</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -702,15 +712,15 @@
         <v>44356.875</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>44357.375</v>
       </c>
-      <c r="B26">
-        <v>20</v>
+      <c r="B26" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -718,7 +728,7 @@
         <v>44357.583333333343</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -726,7 +736,7 @@
         <v>44357.75</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
